--- a/Code/Results/Cases/Case_9_54/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_9_54/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8058131259516585</v>
+        <v>0.7938006636796899</v>
       </c>
       <c r="C2">
-        <v>0.1729542790559293</v>
+        <v>0.17587665519018</v>
       </c>
       <c r="D2">
-        <v>0.08196507729843461</v>
+        <v>0.08509742444417867</v>
       </c>
       <c r="E2">
-        <v>0.3765210506564856</v>
+        <v>0.3751580155193182</v>
       </c>
       <c r="F2">
-        <v>0.4184181009507242</v>
+        <v>0.3915026474418042</v>
       </c>
       <c r="G2">
-        <v>0.3178846855880337</v>
+        <v>0.2741348839919979</v>
       </c>
       <c r="H2">
-        <v>1.17839665751962E-05</v>
+        <v>2.744781663399642E-05</v>
       </c>
       <c r="I2">
-        <v>0.0007575517644760055</v>
+        <v>0.0006315154419072044</v>
       </c>
       <c r="J2">
-        <v>0.2925987210960628</v>
+        <v>0.3092940349774409</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1435310313554279</v>
       </c>
       <c r="M2">
-        <v>0.8661596050319531</v>
+        <v>0.06841184565867131</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.5708014843980393</v>
+        <v>0.8858047440071459</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.234399387042899</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.5761670228973941</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1.145184664092795</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7037510136715355</v>
+        <v>0.6964684469606652</v>
       </c>
       <c r="C3">
-        <v>0.1620180059007339</v>
+        <v>0.1597725035513378</v>
       </c>
       <c r="D3">
-        <v>0.07322233124652655</v>
+        <v>0.0753790547258788</v>
       </c>
       <c r="E3">
-        <v>0.3320514140609063</v>
+        <v>0.3316173499216788</v>
       </c>
       <c r="F3">
-        <v>0.4002249387553576</v>
+        <v>0.3770299640586714</v>
       </c>
       <c r="G3">
-        <v>0.3083943594725085</v>
+        <v>0.2687377346439206</v>
       </c>
       <c r="H3">
-        <v>8.056795378497128E-05</v>
+        <v>4.572278510894812E-05</v>
       </c>
       <c r="I3">
-        <v>0.001260282813477787</v>
+        <v>0.0008937010723562011</v>
       </c>
       <c r="J3">
-        <v>0.2922421769041179</v>
+        <v>0.3083724266814656</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.148658782654298</v>
       </c>
       <c r="M3">
-        <v>0.7641249799045227</v>
+        <v>0.06809758788189768</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.4969906485442337</v>
+        <v>0.7796247238811702</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.21326363256469</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.501329075883163</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1.134341001241694</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6407922452284538</v>
+        <v>0.6363228925644364</v>
       </c>
       <c r="C4">
-        <v>0.1553999575506495</v>
+        <v>0.1500893327034873</v>
       </c>
       <c r="D4">
-        <v>0.06785868387510874</v>
+        <v>0.06943274063796423</v>
       </c>
       <c r="E4">
-        <v>0.3047046748724824</v>
+        <v>0.3048290734035177</v>
       </c>
       <c r="F4">
-        <v>0.3894076292675592</v>
+        <v>0.3684016886520496</v>
       </c>
       <c r="G4">
-        <v>0.3028421810649391</v>
+        <v>0.2656955031898107</v>
       </c>
       <c r="H4">
-        <v>0.0002848542250888375</v>
+        <v>0.0002075246222010829</v>
       </c>
       <c r="I4">
-        <v>0.00173993275234352</v>
+        <v>0.001196344134479332</v>
       </c>
       <c r="J4">
-        <v>0.2922261065605909</v>
+        <v>0.3078595818750927</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1519301904808934</v>
       </c>
       <c r="M4">
-        <v>0.7014494470602983</v>
+        <v>0.06838108712727919</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.4517001797415219</v>
+        <v>0.714463417752242</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1.201286654602384</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.4554116716800536</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1.128403019719286</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.614678972361645</v>
+        <v>0.611349882248021</v>
       </c>
       <c r="C5">
-        <v>0.1530634198241003</v>
+        <v>0.1465591224093146</v>
       </c>
       <c r="D5">
-        <v>0.06574739248827655</v>
+        <v>0.06708744176903991</v>
       </c>
       <c r="E5">
-        <v>0.2934850640564264</v>
+        <v>0.2938366041189653</v>
       </c>
       <c r="F5">
-        <v>0.3846282342659819</v>
+        <v>0.3645204673453719</v>
       </c>
       <c r="G5">
-        <v>0.3002029871609082</v>
+        <v>0.2641170303951839</v>
       </c>
       <c r="H5">
-        <v>0.0004071947806847387</v>
+        <v>0.0003097493421875264</v>
       </c>
       <c r="I5">
-        <v>0.002048844116476101</v>
+        <v>0.00143793825016747</v>
       </c>
       <c r="J5">
-        <v>0.2920359231483332</v>
+        <v>0.3074386229859343</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1531118103281202</v>
       </c>
       <c r="M5">
-        <v>0.6762732725102012</v>
+        <v>0.06853819582504173</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.4333389221109485</v>
+        <v>0.6882811476957613</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1.195221004974599</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.436793268887115</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1.124836518143624</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6098708480203925</v>
+        <v>0.606749361726429</v>
       </c>
       <c r="C6">
-        <v>0.1530927898023009</v>
+        <v>0.1464273605468094</v>
       </c>
       <c r="D6">
-        <v>0.06548747432247382</v>
+        <v>0.06678811071571289</v>
       </c>
       <c r="E6">
-        <v>0.2915451798027604</v>
+        <v>0.2919371451487294</v>
       </c>
       <c r="F6">
-        <v>0.3832824829092658</v>
+        <v>0.3633587604226705</v>
       </c>
       <c r="G6">
-        <v>0.2992284603702231</v>
+        <v>0.2633667525454726</v>
       </c>
       <c r="H6">
-        <v>0.0004302818349766202</v>
+        <v>0.0003292526212290703</v>
       </c>
       <c r="I6">
-        <v>0.002198386593144974</v>
+        <v>0.00159187019423257</v>
       </c>
       <c r="J6">
-        <v>0.2917224557131988</v>
+        <v>0.3070949177787199</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1530883046745615</v>
       </c>
       <c r="M6">
-        <v>0.6725524809773731</v>
+        <v>0.06847620138950994</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.430402404546399</v>
+        <v>0.6843835801507652</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1.192486335571047</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.4338105144574058</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>1.12264444841388</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6391593491734966</v>
+        <v>0.634803245432721</v>
       </c>
       <c r="C7">
-        <v>0.1565076664374985</v>
+        <v>0.1511878841472338</v>
       </c>
       <c r="D7">
-        <v>0.06807864217243775</v>
+        <v>0.069789857761414</v>
       </c>
       <c r="E7">
-        <v>0.3043458000536816</v>
+        <v>0.304469054834442</v>
       </c>
       <c r="F7">
-        <v>0.3878217106524602</v>
+        <v>0.3661422726902188</v>
       </c>
       <c r="G7">
-        <v>0.3013317784702068</v>
+        <v>0.2663947076639559</v>
       </c>
       <c r="H7">
-        <v>0.0002874007283288904</v>
+        <v>0.000210221094127272</v>
       </c>
       <c r="I7">
-        <v>0.001989934748922728</v>
+        <v>0.001488821841350685</v>
       </c>
       <c r="J7">
-        <v>0.2914470858613711</v>
+        <v>0.3037235904046014</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1511467993261029</v>
       </c>
       <c r="M7">
-        <v>0.7023725048971698</v>
+        <v>0.06800611195057638</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.4517598433229892</v>
+        <v>0.7152309458901556</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1.196452003714271</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.4554370309221198</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>1.121563043300881</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7689693108411291</v>
+        <v>0.7588304890352902</v>
       </c>
       <c r="C8">
-        <v>0.1706922624436515</v>
+        <v>0.1716547815238698</v>
       </c>
       <c r="D8">
-        <v>0.07928213358369618</v>
+        <v>0.08255484659940748</v>
       </c>
       <c r="E8">
-        <v>0.3609197196639542</v>
+        <v>0.3598541851662986</v>
       </c>
       <c r="F8">
-        <v>0.4100609064839063</v>
+        <v>0.3819964275999084</v>
       </c>
       <c r="G8">
-        <v>0.3126087640843878</v>
+        <v>0.2773573842698909</v>
       </c>
       <c r="H8">
-        <v>6.822090812264037E-07</v>
+        <v>1.11732154906008E-06</v>
       </c>
       <c r="I8">
-        <v>0.001188759640689874</v>
+        <v>0.001041711425016523</v>
       </c>
       <c r="J8">
-        <v>0.2914143325576148</v>
+        <v>0.2970592649699171</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1439613235707906</v>
       </c>
       <c r="M8">
-        <v>0.8326725272148394</v>
+        <v>0.06738543721274759</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.5457522099922869</v>
+        <v>0.8504674384334976</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1.220642598173356</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.5506781873931956</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1.127667564444252</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.023625224378065</v>
+        <v>1.001122511667319</v>
       </c>
       <c r="C9">
-        <v>0.1972930987121799</v>
+        <v>0.2115728432973327</v>
       </c>
       <c r="D9">
-        <v>0.1008650145847199</v>
+        <v>0.1068133539775431</v>
       </c>
       <c r="E9">
-        <v>0.472038141333762</v>
+        <v>0.4685641273256067</v>
       </c>
       <c r="F9">
-        <v>0.4593983392789625</v>
+        <v>0.420684250944781</v>
       </c>
       <c r="G9">
-        <v>0.3397057882613765</v>
+        <v>0.2960025248595741</v>
       </c>
       <c r="H9">
-        <v>0.0008206653879971881</v>
+        <v>0.0008725982993862402</v>
       </c>
       <c r="I9">
-        <v>0.0006939947040605077</v>
+        <v>0.0009145094304132684</v>
       </c>
       <c r="J9">
-        <v>0.2944056630973648</v>
+        <v>0.2976272721812592</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1325341127073649</v>
       </c>
       <c r="M9">
-        <v>1.085925020167338</v>
+        <v>0.07093341238298656</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.7299567830425815</v>
+        <v>1.114298828737446</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>1.284986462145099</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.7374365909459115</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>1.162237134311781</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.214365445216885</v>
+        <v>1.183070799156354</v>
       </c>
       <c r="C10">
-        <v>0.2189572549852983</v>
+        <v>0.2427107757294493</v>
       </c>
       <c r="D10">
-        <v>0.1182321847108341</v>
+        <v>0.1270610155607557</v>
       </c>
       <c r="E10">
-        <v>0.5194131427212625</v>
+        <v>0.5143089433856503</v>
       </c>
       <c r="F10">
-        <v>0.4897634758923033</v>
+        <v>0.439363917284723</v>
       </c>
       <c r="G10">
-        <v>0.3535944603398207</v>
+        <v>0.3171899894158656</v>
       </c>
       <c r="H10">
-        <v>0.00240283838010491</v>
+        <v>0.002413972233027195</v>
       </c>
       <c r="I10">
-        <v>0.001449916074434121</v>
+        <v>0.001776597586537143</v>
       </c>
       <c r="J10">
-        <v>0.2937900587951816</v>
+        <v>0.2776510818557227</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1226453376405576</v>
       </c>
       <c r="M10">
-        <v>1.279448298078478</v>
+        <v>0.07342815631645649</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.8366751910255132</v>
+        <v>1.31468417298521</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>1.313572524666938</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.8455737128972274</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1.158039667496297</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.348183408746252</v>
+        <v>1.317991364310785</v>
       </c>
       <c r="C11">
-        <v>0.2393355823520267</v>
+        <v>0.2628936430124611</v>
       </c>
       <c r="D11">
-        <v>0.1385697134345349</v>
+        <v>0.1499030347085011</v>
       </c>
       <c r="E11">
-        <v>0.2881899526012361</v>
+        <v>0.2844432536429693</v>
       </c>
       <c r="F11">
-        <v>0.4401896778873819</v>
+        <v>0.3868689635508957</v>
       </c>
       <c r="G11">
-        <v>0.3001828959892237</v>
+        <v>0.2947192736402542</v>
       </c>
       <c r="H11">
-        <v>0.02042056829229466</v>
+        <v>0.02040053402982167</v>
       </c>
       <c r="I11">
-        <v>0.00225797728793431</v>
+        <v>0.002664672335729534</v>
       </c>
       <c r="J11">
-        <v>0.262866086281548</v>
+        <v>0.2245488637592175</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1081257529358712</v>
       </c>
       <c r="M11">
-        <v>1.428125537824172</v>
+        <v>0.06163555006610011</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.6477970166416824</v>
+        <v>1.460942992466698</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>1.135764875100762</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.6546874412307986</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0.9785148505944505</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.425531256357402</v>
+        <v>1.398181733314743</v>
       </c>
       <c r="C12">
-        <v>0.250852840372545</v>
+        <v>0.2718343160434245</v>
       </c>
       <c r="D12">
-        <v>0.1525245599133882</v>
+        <v>0.164801905710604</v>
       </c>
       <c r="E12">
-        <v>0.1436080394246311</v>
+        <v>0.141126545004532</v>
       </c>
       <c r="F12">
-        <v>0.3959099185199833</v>
+        <v>0.3453396330389964</v>
       </c>
       <c r="G12">
-        <v>0.257532484925477</v>
+        <v>0.2662197581281234</v>
       </c>
       <c r="H12">
-        <v>0.05863659437395796</v>
+        <v>0.05861202871148663</v>
       </c>
       <c r="I12">
-        <v>0.002336818547199471</v>
+        <v>0.002730625579657975</v>
       </c>
       <c r="J12">
-        <v>0.239364450104226</v>
+        <v>0.2007392159605068</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1003119930972813</v>
       </c>
       <c r="M12">
-        <v>1.513849060916385</v>
+        <v>0.05300500711531697</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.4878926714390488</v>
+        <v>1.543190213800273</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0.9962004089707222</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.4931145112075157</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0.8525893704644147</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.4610850776495</v>
+        <v>1.438044598725241</v>
       </c>
       <c r="C13">
-        <v>0.2579016278612443</v>
+        <v>0.2748792366981689</v>
       </c>
       <c r="D13">
-        <v>0.1626124411245087</v>
+        <v>0.1740457353379412</v>
       </c>
       <c r="E13">
-        <v>0.05647432298683697</v>
+        <v>0.0551946320375194</v>
       </c>
       <c r="F13">
-        <v>0.3506509244119229</v>
+        <v>0.3085157278789268</v>
       </c>
       <c r="G13">
-        <v>0.2182530592177869</v>
+        <v>0.2258001613771512</v>
       </c>
       <c r="H13">
-        <v>0.1139491250358446</v>
+        <v>0.1139352913307192</v>
       </c>
       <c r="I13">
-        <v>0.002180593776689221</v>
+        <v>0.002576334447625506</v>
       </c>
       <c r="J13">
-        <v>0.2188897151838631</v>
+        <v>0.1930093275913585</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.0957788287161998</v>
       </c>
       <c r="M13">
-        <v>1.557204811498877</v>
+        <v>0.04603279617505507</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.3422925641676713</v>
+        <v>1.582333178176242</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0.8700372877481897</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.3460085423159001</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0.7546622515236692</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.466558685477935</v>
+        <v>1.447223068680074</v>
       </c>
       <c r="C14">
-        <v>0.2612662771186933</v>
+        <v>0.2747954892336253</v>
       </c>
       <c r="D14">
-        <v>0.1680337723152405</v>
+        <v>0.17800671457411</v>
       </c>
       <c r="E14">
-        <v>0.02944129359777037</v>
+        <v>0.02890466636356503</v>
       </c>
       <c r="F14">
-        <v>0.3186014830287434</v>
+        <v>0.2843844318978412</v>
       </c>
       <c r="G14">
-        <v>0.1925378989199586</v>
+        <v>0.1940308396300949</v>
       </c>
       <c r="H14">
-        <v>0.1630236240243335</v>
+        <v>0.163020077585216</v>
       </c>
       <c r="I14">
-        <v>0.002054781244845039</v>
+        <v>0.002470295436657999</v>
       </c>
       <c r="J14">
-        <v>0.2059945065291444</v>
+        <v>0.1924743318223889</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.09376413375888237</v>
       </c>
       <c r="M14">
-        <v>1.568761470769232</v>
+        <v>0.0419695274857137</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.2507803547260359</v>
+        <v>1.590568382930968</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0.7884684839074083</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.2535311390460571</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.6971787901908897</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.457948663350152</v>
+        <v>1.439816311754925</v>
       </c>
       <c r="C15">
-        <v>0.2615957001865183</v>
+        <v>0.2740564113206432</v>
       </c>
       <c r="D15">
-        <v>0.1685200467972834</v>
+        <v>0.1777761253826213</v>
       </c>
       <c r="E15">
-        <v>0.02730241450152682</v>
+        <v>0.02695431617209421</v>
       </c>
       <c r="F15">
-        <v>0.3099646264780844</v>
+        <v>0.2786231193913338</v>
       </c>
       <c r="G15">
-        <v>0.1862451766109388</v>
+        <v>0.1843135008768897</v>
       </c>
       <c r="H15">
-        <v>0.1754365887697986</v>
+        <v>0.1754371717549787</v>
       </c>
       <c r="I15">
-        <v>0.002088219249355205</v>
+        <v>0.002531782146019346</v>
       </c>
       <c r="J15">
-        <v>0.2031376511258571</v>
+        <v>0.1942810142638471</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.09359783898662855</v>
       </c>
       <c r="M15">
-        <v>1.562583554059671</v>
+        <v>0.04114054083942342</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.2289376594191488</v>
+        <v>1.583448820243547</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0.7691144504728697</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.231451754397149</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.6858929340883861</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.366104380889169</v>
+        <v>1.350469152615915</v>
       </c>
       <c r="C16">
-        <v>0.2511651834495296</v>
+        <v>0.2613791057430888</v>
       </c>
       <c r="D16">
-        <v>0.1587392478072047</v>
+        <v>0.1650996074507134</v>
       </c>
       <c r="E16">
-        <v>0.02740790324026821</v>
+        <v>0.02732755625197414</v>
       </c>
       <c r="F16">
-        <v>0.305388325077665</v>
+        <v>0.2821855059532012</v>
       </c>
       <c r="G16">
-        <v>0.1875180358686563</v>
+        <v>0.1695141184680296</v>
       </c>
       <c r="H16">
-        <v>0.1622854844202379</v>
+        <v>0.162298735640519</v>
       </c>
       <c r="I16">
-        <v>0.001844459140053267</v>
+        <v>0.002308676087159789</v>
       </c>
       <c r="J16">
-        <v>0.2069750939031394</v>
+        <v>0.2150021968543392</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.09706875465644771</v>
       </c>
       <c r="M16">
-        <v>1.469138136129345</v>
+        <v>0.04282340687142927</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.2176293840979469</v>
+        <v>1.488988416190978</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0.7796659237227459</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.2200068562204578</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0.7161064081365254</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.292944882909609</v>
+        <v>1.27731795152161</v>
       </c>
       <c r="C17">
-        <v>0.2414493335442955</v>
+        <v>0.251645448157447</v>
       </c>
       <c r="D17">
-        <v>0.1483837808345925</v>
+        <v>0.153713318292219</v>
       </c>
       <c r="E17">
-        <v>0.03611182338019248</v>
+        <v>0.03590097285482496</v>
       </c>
       <c r="F17">
-        <v>0.3187298414617601</v>
+        <v>0.2971350192601179</v>
       </c>
       <c r="G17">
-        <v>0.2018613213436211</v>
+        <v>0.1758514748813553</v>
       </c>
       <c r="H17">
-        <v>0.1243122916496588</v>
+        <v>0.1243279660868666</v>
       </c>
       <c r="I17">
-        <v>0.001771990096194997</v>
+        <v>0.002234994580596172</v>
       </c>
       <c r="J17">
-        <v>0.2166869145782897</v>
+        <v>0.2320585621001214</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1012148762599505</v>
       </c>
       <c r="M17">
-        <v>1.391647549774092</v>
+        <v>0.04601162345272769</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.2547406949553093</v>
+        <v>1.412311746410182</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0.8302968737023093</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.2574950170459154</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0.7689309510270022</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.229562975722899</v>
+        <v>1.21176771373743</v>
       </c>
       <c r="C18">
-        <v>0.2303671649546004</v>
+        <v>0.2424161457996092</v>
       </c>
       <c r="D18">
-        <v>0.1364305712495337</v>
+        <v>0.14172260197806</v>
       </c>
       <c r="E18">
-        <v>0.08235408554235235</v>
+        <v>0.08155908630477171</v>
       </c>
       <c r="F18">
-        <v>0.3509517676323455</v>
+        <v>0.3267176911287279</v>
       </c>
       <c r="G18">
-        <v>0.2315854048937993</v>
+        <v>0.1988099298345389</v>
       </c>
       <c r="H18">
-        <v>0.07150064240517651</v>
+        <v>0.0715206817735563</v>
       </c>
       <c r="I18">
-        <v>0.001515166253278188</v>
+        <v>0.001925461685219787</v>
       </c>
       <c r="J18">
-        <v>0.2337209962160571</v>
+        <v>0.2508660278067865</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1072737408344544</v>
       </c>
       <c r="M18">
-        <v>1.318923104340882</v>
+        <v>0.05153156334351294</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.349033867036205</v>
+        <v>1.342192202986695</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0.9289185346793545</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.3527881390391556</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0.8575914391562947</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.177026111394099</v>
+        <v>1.155695581647677</v>
       </c>
       <c r="C19">
-        <v>0.2221402163957293</v>
+        <v>0.2374176053219088</v>
       </c>
       <c r="D19">
-        <v>0.1250979684837148</v>
+        <v>0.1308766612305448</v>
       </c>
       <c r="E19">
-        <v>0.1993179467515986</v>
+        <v>0.1974176913452723</v>
       </c>
       <c r="F19">
-        <v>0.3953856892814258</v>
+        <v>0.3656244576547252</v>
       </c>
       <c r="G19">
-        <v>0.2721557747657144</v>
+        <v>0.2324722637001386</v>
       </c>
       <c r="H19">
-        <v>0.02656207118145915</v>
+        <v>0.02659193134797277</v>
       </c>
       <c r="I19">
-        <v>0.001645471245333319</v>
+        <v>0.002083183260972454</v>
       </c>
       <c r="J19">
-        <v>0.2554743225363083</v>
+        <v>0.2708002857981882</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1145742272118593</v>
       </c>
       <c r="M19">
-        <v>1.259463986499185</v>
+        <v>0.05875560750069297</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.5009812609352551</v>
+        <v>1.286404917968582</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>1.060463830084672</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.5063330454813837</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0.9703749324505111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.160447084865865</v>
+        <v>1.131563778965301</v>
       </c>
       <c r="C20">
-        <v>0.2170445612079561</v>
+        <v>0.2391426983941187</v>
       </c>
       <c r="D20">
-        <v>0.1145272175896963</v>
+        <v>0.1220487561229788</v>
       </c>
       <c r="E20">
-        <v>0.5048850107272642</v>
+        <v>0.5002811713703892</v>
       </c>
       <c r="F20">
-        <v>0.4766587126300266</v>
+        <v>0.4325868553505074</v>
       </c>
       <c r="G20">
-        <v>0.345037077809792</v>
+        <v>0.2995487478464796</v>
       </c>
       <c r="H20">
-        <v>0.001893628349194376</v>
+        <v>0.001926033756023848</v>
       </c>
       <c r="I20">
-        <v>0.001932240462920731</v>
+        <v>0.002407365991519583</v>
       </c>
       <c r="J20">
-        <v>0.2913861421149733</v>
+        <v>0.2914085798571975</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1244329892069693</v>
       </c>
       <c r="M20">
-        <v>1.232956414577188</v>
+        <v>0.07187946300185288</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.8083831097035841</v>
+        <v>1.26669055562823</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>1.290286506688687</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.8169522200703909</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>1.153452494622513</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.298861465597554</v>
+        <v>1.26312107719184</v>
       </c>
       <c r="C21">
-        <v>0.2317918874227871</v>
+        <v>0.2600217954786075</v>
       </c>
       <c r="D21">
-        <v>0.1257130571001284</v>
+        <v>0.1385180507372468</v>
       </c>
       <c r="E21">
-        <v>0.5944210151748308</v>
+        <v>0.5879901631425852</v>
       </c>
       <c r="F21">
-        <v>0.5129912274786719</v>
+        <v>0.4434967416785582</v>
       </c>
       <c r="G21">
-        <v>0.3680859275815891</v>
+        <v>0.3693248980711985</v>
       </c>
       <c r="H21">
-        <v>0.003471384202738403</v>
+        <v>0.003412029459738952</v>
       </c>
       <c r="I21">
-        <v>0.002728541109623173</v>
+        <v>0.00315429043256632</v>
       </c>
       <c r="J21">
-        <v>0.2973408403086211</v>
+        <v>0.2327387800256702</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1169926982553537</v>
       </c>
       <c r="M21">
-        <v>1.370880800465443</v>
+        <v>0.07378886779772031</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.9356900750408386</v>
+        <v>1.408590260873979</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>1.351942605778476</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.9453477904611276</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>1.140051988019209</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.393664909343244</v>
+        <v>1.353618108754119</v>
       </c>
       <c r="C22">
-        <v>0.2404569233289635</v>
+        <v>0.2722260035259296</v>
       </c>
       <c r="D22">
-        <v>0.1333770387145705</v>
+        <v>0.1499548284524366</v>
       </c>
       <c r="E22">
-        <v>0.6358555326974908</v>
+        <v>0.6283510198100828</v>
       </c>
       <c r="F22">
-        <v>0.5354750308609866</v>
+        <v>0.4483330446555698</v>
       </c>
       <c r="G22">
-        <v>0.3818689291826587</v>
+        <v>0.4213467624504119</v>
       </c>
       <c r="H22">
-        <v>0.00471978494379155</v>
+        <v>0.004574504800591184</v>
       </c>
       <c r="I22">
-        <v>0.003169933114199885</v>
+        <v>0.003439559434504247</v>
       </c>
       <c r="J22">
-        <v>0.3006269693575945</v>
+        <v>0.2009975216141733</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1121404425909098</v>
       </c>
       <c r="M22">
-        <v>1.462768751107035</v>
+        <v>0.07490753040047693</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.003762174059034</v>
+        <v>1.502742283077424</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>1.388247836549311</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>1.013933550529181</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>1.124659767304408</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.344645103428292</v>
+        <v>1.306690380817003</v>
       </c>
       <c r="C23">
-        <v>0.2343736426041971</v>
+        <v>0.2642910913068164</v>
       </c>
       <c r="D23">
-        <v>0.1289763431231279</v>
+        <v>0.1430980847467538</v>
       </c>
       <c r="E23">
-        <v>0.6139790487203527</v>
+        <v>0.6070493568170647</v>
       </c>
       <c r="F23">
-        <v>0.5251975910865454</v>
+        <v>0.4493078804032109</v>
       </c>
       <c r="G23">
-        <v>0.3761788078068804</v>
+        <v>0.3884444066020762</v>
       </c>
       <c r="H23">
-        <v>0.004035640065092383</v>
+        <v>0.003942546670878788</v>
       </c>
       <c r="I23">
-        <v>0.002626542265965703</v>
+        <v>0.002926512652067892</v>
       </c>
       <c r="J23">
-        <v>0.2997315825895299</v>
+        <v>0.2224675070100304</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1153740566117882</v>
       </c>
       <c r="M23">
-        <v>1.412147668474773</v>
+        <v>0.07519787104291709</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.9670390610961661</v>
+        <v>1.451221423040749</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>1.374201044683389</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.9770128777868479</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>1.143409478360127</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.15625173699857</v>
+        <v>1.126963362527306</v>
       </c>
       <c r="C24">
-        <v>0.2139013012509565</v>
+        <v>0.2358964805299166</v>
       </c>
       <c r="D24">
-        <v>0.1128449575596022</v>
+        <v>0.1203544395182945</v>
       </c>
       <c r="E24">
-        <v>0.5309167836490545</v>
+        <v>0.5261202274218633</v>
       </c>
       <c r="F24">
-        <v>0.4845393156259235</v>
+        <v>0.4396555609857202</v>
       </c>
       <c r="G24">
-        <v>0.352797904285282</v>
+        <v>0.3059185842326428</v>
       </c>
       <c r="H24">
-        <v>0.001888591031729003</v>
+        <v>0.001921707400964978</v>
       </c>
       <c r="I24">
-        <v>0.001460850314903617</v>
+        <v>0.001837149925947301</v>
       </c>
       <c r="J24">
-        <v>0.295471908856463</v>
+        <v>0.2954431036466474</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1261666731078748</v>
       </c>
       <c r="M24">
-        <v>1.223236652867229</v>
+        <v>0.0736036574528196</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.8289512277458257</v>
+        <v>1.257302602247364</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>1.315290736576728</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.8377523079002813</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>1.175402304596304</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9525899739663544</v>
+        <v>0.9335701017262465</v>
       </c>
       <c r="C25">
-        <v>0.1921361732861868</v>
+        <v>0.2031344285838088</v>
       </c>
       <c r="D25">
-        <v>0.09547722380312251</v>
+        <v>0.1004790995066571</v>
       </c>
       <c r="E25">
-        <v>0.4416007247129414</v>
+        <v>0.4388219062366971</v>
       </c>
       <c r="F25">
-        <v>0.4429668837563057</v>
+        <v>0.4085586342467451</v>
       </c>
       <c r="G25">
-        <v>0.329459471419689</v>
+        <v>0.2853082163151583</v>
       </c>
       <c r="H25">
-        <v>0.0004349712877322887</v>
+        <v>0.0004857299576483953</v>
       </c>
       <c r="I25">
-        <v>0.001076202495062795</v>
+        <v>0.001309078568372257</v>
       </c>
       <c r="J25">
-        <v>0.2920316025318428</v>
+        <v>0.3007558706423623</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1349634137468065</v>
       </c>
       <c r="M25">
-        <v>1.019721587575901</v>
+        <v>0.06908838200120471</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.6806102633743123</v>
+        <v>1.045307494058648</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>1.25812740335121</v>
+        <v>0.6874146216823576</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>1.147897168338758</v>
       </c>
     </row>
   </sheetData>
